--- a/data/International Trade_ Deutschland_2018-2020.xlsx
+++ b/data/International Trade_ Deutschland_2018-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stell\Dropbox\study\Master\3. Sem\Logistik\SCA\Case Study SCA\Gruppenarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\TUB Master\1. Semester\SCA\Case study\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93118D70-CD21-4BE2-B297-14004DDEF1C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EF60BC-E355-40C7-9F9F-60E62A635136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="96" windowWidth="10548" windowHeight="9972" xr2:uid="{EFC298D2-BBCF-469F-8B5E-6F4661FFA5C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EFC298D2-BBCF-469F-8B5E-6F4661FFA5C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>2020-12</t>
   </si>
   <si>
-    <t>Trade Value (Million Euro)</t>
+    <t>Trade_Value_Million_Euro</t>
   </si>
 </sst>
 </file>
@@ -155,9 +155,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="#,##0.##########"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -201,12 +201,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -525,16 +525,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3945C4D9-D048-490B-A5C5-B46B111E4A15}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>21286.9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -558,7 +558,7 @@
         <v>18464.099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -566,7 +566,7 @@
         <v>20806.599999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,7 +574,7 @@
         <v>19634.900000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,7 +582,7 @@
         <v>19312.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -590,7 +590,7 @@
         <v>19042.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -598,7 +598,7 @@
         <v>17292.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -606,7 +606,7 @@
         <v>19521.8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -614,7 +614,7 @@
         <v>18401.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -622,7 +622,7 @@
         <v>17689.099999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,7 +630,7 @@
         <v>19707.599999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -638,7 +638,7 @@
         <v>20381</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -646,7 +646,7 @@
         <v>19130.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -654,7 +654,7 @@
         <v>18705.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -662,7 +662,7 @@
         <v>20791.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -670,7 +670,7 @@
         <v>18051.2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -678,7 +678,7 @@
         <v>19945.2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -686,7 +686,7 @@
         <v>18821.3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -694,7 +694,7 @@
         <v>19880.3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -702,7 +702,7 @@
         <v>19326.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -710,7 +710,7 @@
         <v>19866.8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -718,7 +718,7 @@
         <v>21023.4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -726,7 +726,7 @@
         <v>19820</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -734,7 +734,7 @@
         <v>20615.2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -742,7 +742,7 @@
         <v>18328.400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -750,7 +750,7 @@
         <v>23031.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -758,7 +758,7 @@
         <v>18129.2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -766,7 +766,7 @@
         <v>6482.9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -774,7 +774,7 @@
         <v>10009.799999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -782,7 +782,7 @@
         <v>15404.4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -790,7 +790,7 @@
         <v>16374.6</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -798,7 +798,7 @@
         <v>16534.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -806,7 +806,7 @@
         <v>17707.099999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -814,7 +814,7 @@
         <v>18990.7</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -822,7 +822,7 @@
         <v>18000.400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -830,7 +830,7 @@
         <v>18938.400000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
   </sheetData>
